--- a/cs-models/eai/cms/smk.dk/types.xlsx
+++ b/cs-models/eai/cms/smk.dk/types.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aradeva\Desktop\SMK Integration\CMS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12045"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="24240" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>SMKCO7002</t>
   </si>
@@ -33,9 +28,6 @@
     <t>SMKCO7003</t>
   </si>
   <si>
-    <t>Ephemera</t>
-  </si>
-  <si>
     <t>SMKCO7004</t>
   </si>
   <si>
@@ -57,9 +49,6 @@
     <t>SMKCO7007</t>
   </si>
   <si>
-    <t>Portfolio</t>
-  </si>
-  <si>
     <t>SMKCO7008</t>
   </si>
   <si>
@@ -75,85 +64,109 @@
     <t>SMKCO7010</t>
   </si>
   <si>
-    <t>Bound Volume</t>
-  </si>
-  <si>
     <t>SMKCO7011</t>
   </si>
   <si>
     <t>Frame</t>
   </si>
   <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>CMS?</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>SMKCO7001</t>
+  </si>
+  <si>
+    <t>Decorative Art</t>
+  </si>
+  <si>
+    <t>API Mapping (CL7)</t>
+  </si>
+  <si>
+    <t>http://www.sirma.com/ontologies/2016/02/culturalHeritageConservation/SMK#DecorativeArt</t>
+  </si>
+  <si>
+    <t>http://www.sirma.com/ontologies/2016/02/culturalHeritageConservation/SMK#Drawing</t>
+  </si>
+  <si>
+    <t>http://www.sirma.com/ontologies/2016/02/culturalHeritageConservation/SMK#Cast</t>
+  </si>
+  <si>
+    <t>http://www.sirma.com/ontologies/2016/02/culturalHeritageConservation/SMK#MediaArt</t>
+  </si>
+  <si>
+    <t>http://www.sirma.com/ontologies/2016/02/culturalHeritageConservation/SMK#Painting</t>
+  </si>
+  <si>
+    <t> http://www.sirma.com/ontologies/2016/02/culturalHeritageConservation/SMK#Photograph</t>
+  </si>
+  <si>
+    <t>http://www.sirma.com/ontologies/2016/02/culturalHeritageConservation/SMK#Installation</t>
+  </si>
+  <si>
+    <t>http://www.sirma.com/ontologies/2016/02/culturalHeritageConservation/SMK#Print</t>
+  </si>
+  <si>
+    <t>http://www.sirma.com/ontologies/2016/02/culturalHeritageConservation/SMK#Sculpture</t>
+  </si>
+  <si>
+    <t>http://www.sirma.com/ontologies/2016/02/culturalHeritageConservation/SMK#Frame</t>
+  </si>
+  <si>
+    <t>Works of Art on Paper in Multiple Parts</t>
+  </si>
+  <si>
+    <t>Tegning</t>
+  </si>
+  <si>
+    <t>Audiovisuel kunst</t>
+  </si>
+  <si>
+    <t>Maleri</t>
+  </si>
+  <si>
+    <t>Fotografi</t>
+  </si>
+  <si>
+    <t>Grafik</t>
+  </si>
+  <si>
+    <t>Skulptur</t>
+  </si>
+  <si>
+    <t>Ramme</t>
+  </si>
+  <si>
+    <t>http://www.sirma.com/ontologies/2016/02/culturalHeritageConservation/SMK#WorksOfArtOnPaperInMultipleParts</t>
+  </si>
+  <si>
+    <t>Afstøbning</t>
+  </si>
+  <si>
+    <t>Kunsthåndværk</t>
+  </si>
+  <si>
+    <t>Collage</t>
+  </si>
+  <si>
     <t>SMKCO7012</t>
   </si>
   <si>
-    <t>Installation</t>
-  </si>
-  <si>
-    <t>SMKCO7013</t>
-  </si>
-  <si>
-    <t>Cast</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Classification</t>
-  </si>
-  <si>
-    <t>CMS?</t>
-  </si>
-  <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>SMKCO7001</t>
-  </si>
-  <si>
-    <t>Decorative Art</t>
-  </si>
-  <si>
-    <t>API Mapping (CL7)</t>
-  </si>
-  <si>
-    <t>smk:DecorativeArt</t>
-  </si>
-  <si>
-    <t>smk:Drawing</t>
-  </si>
-  <si>
-    <t>smk:Ephemera</t>
-  </si>
-  <si>
-    <t>smk:MediaArt</t>
-  </si>
-  <si>
-    <t>smk:Painting</t>
-  </si>
-  <si>
-    <t> smk:Photograph</t>
-  </si>
-  <si>
-    <t>smk:Portfolio</t>
-  </si>
-  <si>
-    <t>smk:Print</t>
-  </si>
-  <si>
-    <t>smk:Sculpture</t>
-  </si>
-  <si>
-    <t>smk:BoundVolume</t>
-  </si>
-  <si>
-    <t>smk:Frame</t>
-  </si>
-  <si>
-    <t>smk:Installation</t>
-  </si>
-  <si>
-    <t>smk:Cast</t>
+    <t>http://www.sirma.com/ontologies/2016/02/culturalHeritageConservation/SMK#Collage</t>
   </si>
 </sst>
 </file>
@@ -463,7 +476,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -471,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,36 +500,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -530,10 +543,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -541,186 +554,166 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
